--- a/client/Scene.xlsx
+++ b/client/Scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="23535" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>序号</t>
   </si>
@@ -258,6 +258,12 @@
   <si>
     <t>Assets/mnRes/Images/scene/scene_story_scene_bg_9.jpg</t>
   </si>
+  <si>
+    <t>卡牌-绿瑶对镜梳妆</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/scene/scene_card_bg_301001</t>
+  </si>
 </sst>
 </file>
 
@@ -286,51 +292,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,68 +366,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,6 +380,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -464,55 +470,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,121 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,71 +669,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,6 +697,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -772,10 +778,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,19 +790,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -805,112 +811,112 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1241,12 +1247,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1530,6 +1536,17 @@
         <v>51</v>
       </c>
     </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/client/Scene.xlsx
+++ b/client/Scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23535" windowHeight="12465"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>序号</t>
   </si>
@@ -264,6 +264,42 @@
   <si>
     <t>Assets/mnRes/Images/scene/scene_card_bg_301001</t>
   </si>
+  <si>
+    <t>关卡战斗场景-湖边</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/scene/scene_level_scene_bg_1.jpg</t>
+  </si>
+  <si>
+    <t>关卡战斗场景-树林</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/scene/scene_level_scene_bg_2.jpg</t>
+  </si>
+  <si>
+    <t>关卡战斗场景-厅堂</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/scene/scene_level_scene_bg_3.jpg</t>
+  </si>
+  <si>
+    <t>关卡战斗场景-郊外</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/scene/scene_level_scene_bg_4.jpg</t>
+  </si>
+  <si>
+    <t>关卡章节场景-湖边</t>
+  </si>
+  <si>
+    <t>关卡章节场景-树林</t>
+  </si>
+  <si>
+    <t>关卡章节场景-厅堂</t>
+  </si>
+  <si>
+    <t>关卡章节场景-郊外</t>
+  </si>
 </sst>
 </file>
 
@@ -271,14 +307,21 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -292,6 +335,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -299,16 +349,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,22 +408,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,9 +432,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,72 +454,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,181 +513,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,15 +716,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -693,21 +727,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,17 +751,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,6 +775,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -778,157 +821,163 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -983,6 +1032,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1249,37 +1303,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="89.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1340,7 +1394,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -1545,6 +1599,95 @@
       </c>
       <c r="C26" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:5">
+      <c r="A27" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:3">
+      <c r="A28" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:3">
+      <c r="A29" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:3">
+      <c r="A30" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:3">
+      <c r="A31" s="1">
+        <v>30001</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:3">
+      <c r="A32" s="1">
+        <v>30002</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:3">
+      <c r="A33" s="1">
+        <v>30003</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:3">
+      <c r="A34" s="1">
+        <v>30004</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/client/Scene.xlsx
+++ b/client/Scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="24180" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
-  <si>
-    <t>序号</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+  <si>
+    <r>
+      <t xml:space="preserve">序号
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知交11001
+战斗20001
+关卡30001
+界面110001
+卡牌301001
+剧情500001</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <t>备注</t>
@@ -121,48 +149,90 @@
     </r>
   </si>
   <si>
-    <t>征收-庭院</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/levy/levy_1_scene_bg_1.png</t>
-  </si>
-  <si>
-    <t>征收-库房</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/levy/levy_1_scene_bg_2.png</t>
-  </si>
-  <si>
-    <t>征收-水井</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/levy/levy_1_scene_bg_3.png</t>
-  </si>
-  <si>
-    <t>征收-走廊</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/levy/levy_1_scene_bg_4.png</t>
-  </si>
-  <si>
-    <t>征收-花园</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/levy/levy_1_scene_bg_5.png</t>
-  </si>
-  <si>
-    <t>个人信息-背景</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/player_info/player_info_1_scene_bg.jpg</t>
-  </si>
-  <si>
-    <t>我的房间-等级1</t>
+    <t>知交-绿瑶-庭院</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/scene/scene_friend_scene_bg_3.jpg</t>
+  </si>
+  <si>
+    <t>知交-裴邈-凉亭</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/scene/scene_friend_scene_bg_1.jpg</t>
+  </si>
+  <si>
+    <t>知交-蔺飒-望楼</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/scene/scene_friend_scene_bg_4.jpg</t>
+  </si>
+  <si>
+    <t>知交-李璨昭-竹园</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/scene/scene_friend_scene_bg_5.jpg</t>
+  </si>
+  <si>
+    <t>知交-李润-书房</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/scene/scene_friend_scene_bg_2.jpg</t>
+  </si>
+  <si>
+    <t>关卡战斗场景-湖边</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/scene/scene_level_scene_bg_1.jpg</t>
+  </si>
+  <si>
+    <t>关卡战斗场景-树林</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/scene/scene_level_scene_bg_2.jpg</t>
+  </si>
+  <si>
+    <t>关卡战斗场景-厅堂</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/scene/scene_level_scene_bg_3.jpg</t>
+  </si>
+  <si>
+    <t>关卡战斗场景-郊外</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/scene/scene_level_scene_bg_4.jpg</t>
+  </si>
+  <si>
+    <t>关卡章节场景-湖边</t>
+  </si>
+  <si>
+    <t>关卡章节场景-树林</t>
+  </si>
+  <si>
+    <t>关卡章节场景-厅堂</t>
+  </si>
+  <si>
+    <t>关卡章节场景-郊外</t>
+  </si>
+  <si>
+    <t>场景-房间-我的房间等级1</t>
   </si>
   <si>
     <t>Assets/mnRes/Images/scene/room_1_scene_bg.jpg</t>
   </si>
   <si>
+    <t>场景-宅院-夜晚</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/scene/home_scene_bg_1.jpg</t>
+  </si>
+  <si>
+    <t>卡牌-绿瑶对镜梳妆</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/scene/scene_card_bg_301001.jpg</t>
+  </si>
+  <si>
     <t>剧情-卷首-祠堂</t>
   </si>
   <si>
@@ -211,94 +281,16 @@
     <t>Assets/mnRes/Images/scene/scene_story_scene_bg_8.jpg</t>
   </si>
   <si>
-    <t>主场景-宅院-夜晚</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/scene/home_scene_bg_1.jpg</t>
-  </si>
-  <si>
-    <t>我的房间-夜晚</t>
+    <t>剧情-花园</t>
+  </si>
+  <si>
+    <t>Assets/mnRes/Images/scene/scene_story_scene_bg_9.jpg</t>
+  </si>
+  <si>
+    <t>剧情-第一章-房间-夜晚</t>
   </si>
   <si>
     <t>Assets/mnRes/Images/scene/room_1_scene_bg_2.jpg</t>
-  </si>
-  <si>
-    <t>知交-裴邈-凉亭</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/scene/scene_friend_scene_bg_1.jpg</t>
-  </si>
-  <si>
-    <t>知交-李润-书房</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/scene/scene_friend_scene_bg_2.jpg</t>
-  </si>
-  <si>
-    <t>知交-绿瑶-庭院</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/scene/scene_friend_scene_bg_3.jpg</t>
-  </si>
-  <si>
-    <t>知交-蔺飒-望楼</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/scene/scene_friend_scene_bg_4.jpg</t>
-  </si>
-  <si>
-    <t>知交-李璨昭-竹园</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/scene/scene_friend_scene_bg_5.jpg</t>
-  </si>
-  <si>
-    <t>剧情-花园</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/scene/scene_story_scene_bg_9.jpg</t>
-  </si>
-  <si>
-    <t>卡牌-绿瑶对镜梳妆</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/scene/scene_card_bg_301001</t>
-  </si>
-  <si>
-    <t>关卡战斗场景-湖边</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/scene/scene_level_scene_bg_1.jpg</t>
-  </si>
-  <si>
-    <t>关卡战斗场景-树林</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/scene/scene_level_scene_bg_2.jpg</t>
-  </si>
-  <si>
-    <t>关卡战斗场景-厅堂</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/scene/scene_level_scene_bg_3.jpg</t>
-  </si>
-  <si>
-    <t>关卡战斗场景-郊外</t>
-  </si>
-  <si>
-    <t>Assets/mnRes/Images/scene/scene_level_scene_bg_4.jpg</t>
-  </si>
-  <si>
-    <t>关卡章节场景-湖边</t>
-  </si>
-  <si>
-    <t>关卡章节场景-树林</t>
-  </si>
-  <si>
-    <t>关卡章节场景-厅堂</t>
-  </si>
-  <si>
-    <t>关卡章节场景-郊外</t>
   </si>
 </sst>
 </file>
@@ -306,8 +298,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -334,6 +326,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -341,45 +334,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,6 +357,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -410,39 +426,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,17 +448,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,181 +505,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,7 +738,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,8 +761,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,41 +797,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,10 +813,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,137 +825,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,9 +967,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1301,21 +1290,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C16" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
     <col min="3" max="3" width="89.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
+    <row r="1" ht="129.75" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1329,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1</v>
+        <v>11001</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1350,7 +1340,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2</v>
+        <v>12001</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1361,7 +1351,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3</v>
+        <v>13001</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1372,7 +1362,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4</v>
+        <v>14001</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -1383,7 +1373,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>5</v>
+        <v>15001</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -1392,302 +1382,235 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" s="1" customFormat="1" spans="1:3">
+      <c r="A8" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+    <row r="9" s="1" customFormat="1" spans="1:3">
+      <c r="A9" s="1">
+        <v>20002</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="A10" s="1">
+        <v>20003</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:3">
+      <c r="A11" s="1">
+        <v>20004</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:3">
+      <c r="A12" s="1">
+        <v>30001</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:3">
+      <c r="A13" s="1">
+        <v>30002</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:3">
+      <c r="A14" s="1">
+        <v>30003</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:3">
+      <c r="A15" s="1">
+        <v>30004</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>14</v>
+        <v>110001</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>15</v>
+        <v>120001</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>16</v>
+        <v>301001</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>17</v>
+        <v>500001</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>18</v>
+        <v>500002</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>19</v>
+        <v>500003</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>20</v>
+        <v>500004</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>21</v>
+        <v>500005</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>22</v>
+        <v>500006</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>23</v>
+        <v>500007</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>24</v>
+        <v>500008</v>
       </c>
       <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>500009</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>500010</v>
+      </c>
+      <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:5">
-      <c r="A27" s="1">
-        <v>20001</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:3">
-      <c r="A28" s="1">
-        <v>20002</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:3">
-      <c r="A29" s="1">
-        <v>20003</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:3">
-      <c r="A30" s="1">
-        <v>20004</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:3">
-      <c r="A31" s="1">
-        <v>30001</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:3">
-      <c r="A32" s="1">
-        <v>30002</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:3">
-      <c r="A33" s="1">
-        <v>30003</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:3">
-      <c r="A34" s="1">
-        <v>30004</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
